--- a/ScrapedInvoiceData.xlsx
+++ b/ScrapedInvoiceData.xlsx
@@ -1,71 +1,593 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <x:si>
+    <x:t>Customer Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Invoice Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dynazzy
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">279
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2170
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 725,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Yakidoo
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">609
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3031
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">650,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Jamia
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">97
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5536
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">925,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Mydo
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">570
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2223
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">675,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tagopia
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">907
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3441
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 825,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Fliptune
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">346
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6155
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 475,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Mydeo
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">618
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2243
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 200,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Feednation
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">552
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6306
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 500,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Topicstorm
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">306
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2535
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 150,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Quire
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">888
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8380
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 100,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Riffwire
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">189
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6014
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 550,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rhyzio
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">7054
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">950,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Zoozzy
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">638
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5366
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 350,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Plambee
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">696
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">4031
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 175,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tazz
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">469
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9541
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1 150,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Yamia
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">741
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3326
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 675,00 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Babbleblab
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">296
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8649
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2 325,00 
+</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="75">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +852,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>